--- a/Startup.xlsx
+++ b/Startup.xlsx
@@ -510,6 +510,364 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="左大括号 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1628775" y="5591175"/>
+          <a:ext cx="133350" cy="2085975"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftBrace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>243750</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>97501</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="矩形 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="895350" y="6496051"/>
+          <a:ext cx="720000" cy="288000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="12700"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>开始 </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>434250</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>78451</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="矩形 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1771650" y="5448301"/>
+          <a:ext cx="720000" cy="288000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="12700"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>找人</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>434250</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>87976</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="矩形 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1771650" y="7515226"/>
+          <a:ext cx="720000" cy="288000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="12700"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>找项目</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>424725</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>97500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="矩形 16"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1762125" y="6496050"/>
+          <a:ext cx="720000" cy="288000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="12700"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>找资金</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>124950</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="肘形连接符 18"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1666875" y="6629400"/>
+          <a:ext cx="85725" cy="10650"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -802,8 +1160,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="E2:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
